--- a/Info/USACE_Offices_and_locations_Mercator.xlsx
+++ b/Info/USACE_Offices_and_locations_Mercator.xlsx
@@ -775,13 +775,13 @@
     <t>POINT (-9177580.024707442 4613351.306699562)</t>
   </si>
   <si>
-    <t>POINT (-13552446.203935113 4629842.778415465)</t>
+    <t>POINT (-13552446.203935113 4629842.778415466)</t>
   </si>
   <si>
     <t>POINT (-8576824.05716297 4666973.545347749)</t>
   </si>
   <si>
-    <t>POINT (-9083796.044043552 3528321.8784466875)</t>
+    <t>POINT (-9083796.044043552 3528321.878446686)</t>
   </si>
   <si>
     <t>POINT (15517624.539951399 4206630.4001116585)</t>
@@ -796,7 +796,7 @@
     <t>POINT (-13161258.811062649 4012826.819805117)</t>
   </si>
   <si>
-    <t>POINT (-9546608.905227616 4588735.585195428)</t>
+    <t>POINT (-9546608.905227616 4588735.585195427)</t>
   </si>
   <si>
     <t>POINT (-10017733.741059175 4161777.805270577)</t>
@@ -820,13 +820,13 @@
     <t>POINT (-8238307.1825937405 4942191.397519159)</t>
   </si>
   <si>
-    <t>POINT (-8492070.676155483 4392771.624075681)</t>
+    <t>POINT (-8492070.676155483 4392771.624075682)</t>
   </si>
   <si>
     <t>POINT (-13652919.339474117 5675678.949428626)</t>
   </si>
   <si>
-    <t>POINT (-10659440.441921268 5020441.963696633)</t>
+    <t>POINT (-10659440.441921268 5020441.9636966325)</t>
   </si>
   <si>
     <t>POINT (-17572687.773392137 2413346.1737827915)</t>
@@ -844,7 +844,7 @@
     <t>POINT (-10083464.586504798 5060795.055869996)</t>
   </si>
   <si>
-    <t>POINT (-13527843.27765176 4635242.355642281)</t>
+    <t>POINT (-13527843.27765176 4635242.3556422815)</t>
   </si>
   <si>
     <t>POINT (-13625223.777345298 4522907.563827218)</t>
@@ -877,7 +877,7 @@
     <t>POINT (-9638929.023649976 4102943.9174812655)</t>
   </si>
   <si>
-    <t>POINT (-13169231.468992455 5763762.294050955)</t>
+    <t>POINT (-13169231.468992455 5763762.294050954)</t>
   </si>
   <si>
     <t>POINT (-8410110.499676216 4801552.733507006)</t>

--- a/Info/USACE_Offices_and_locations_Mercator.xlsx
+++ b/Info/USACE_Offices_and_locations_Mercator.xlsx
@@ -775,13 +775,13 @@
     <t>POINT (-9177580.024707442 4613351.306699562)</t>
   </si>
   <si>
-    <t>POINT (-13552446.203935113 4629842.778415466)</t>
+    <t>POINT (-13552446.203935113 4629842.778415465)</t>
   </si>
   <si>
     <t>POINT (-8576824.05716297 4666973.545347749)</t>
   </si>
   <si>
-    <t>POINT (-9083796.044043552 3528321.878446686)</t>
+    <t>POINT (-9083796.044043552 3528321.8784466875)</t>
   </si>
   <si>
     <t>POINT (15517624.539951399 4206630.4001116585)</t>
@@ -796,7 +796,7 @@
     <t>POINT (-13161258.811062649 4012826.819805117)</t>
   </si>
   <si>
-    <t>POINT (-9546608.905227616 4588735.585195427)</t>
+    <t>POINT (-9546608.905227616 4588735.585195428)</t>
   </si>
   <si>
     <t>POINT (-10017733.741059175 4161777.805270577)</t>
@@ -820,13 +820,13 @@
     <t>POINT (-8238307.1825937405 4942191.397519159)</t>
   </si>
   <si>
-    <t>POINT (-8492070.676155483 4392771.624075682)</t>
+    <t>POINT (-8492070.676155483 4392771.624075681)</t>
   </si>
   <si>
     <t>POINT (-13652919.339474117 5675678.949428626)</t>
   </si>
   <si>
-    <t>POINT (-10659440.441921268 5020441.9636966325)</t>
+    <t>POINT (-10659440.441921268 5020441.963696633)</t>
   </si>
   <si>
     <t>POINT (-17572687.773392137 2413346.1737827915)</t>
@@ -844,7 +844,7 @@
     <t>POINT (-10083464.586504798 5060795.055869996)</t>
   </si>
   <si>
-    <t>POINT (-13527843.27765176 4635242.3556422815)</t>
+    <t>POINT (-13527843.27765176 4635242.355642281)</t>
   </si>
   <si>
     <t>POINT (-13625223.777345298 4522907.563827218)</t>
@@ -877,7 +877,7 @@
     <t>POINT (-9638929.023649976 4102943.9174812655)</t>
   </si>
   <si>
-    <t>POINT (-13169231.468992455 5763762.294050954)</t>
+    <t>POINT (-13169231.468992455 5763762.294050955)</t>
   </si>
   <si>
     <t>POINT (-8410110.499676216 4801552.733507006)</t>
